--- a/resources/practice.xlsx
+++ b/resources/practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\semantic-decision\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9FEF74-C537-4417-B82E-0DDCF774D6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C805478B-A428-4F42-9106-88D11840F031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3024" yWindow="3120" windowWidth="17280" windowHeight="8880" xr2:uid="{EFFAE6B3-D452-4DD4-A4FD-CCDEC2CD8BE7}"/>
   </bookViews>
@@ -36,46 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>LEN</t>
-  </si>
-  <si>
-    <t>CON_M</t>
-  </si>
-  <si>
-    <t>FAM_M</t>
-  </si>
-  <si>
-    <t>Freq_condition</t>
-  </si>
-  <si>
-    <t>Conc_condition</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>low_freq</t>
-  </si>
-  <si>
-    <t>abstract</t>
-  </si>
-  <si>
-    <t>high_freq</t>
-  </si>
-  <si>
-    <t>concrete</t>
-  </si>
-  <si>
-    <t>practice (8)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>novedad</t>
   </si>
@@ -92,9 +53,6 @@
     <t>trance</t>
   </si>
   <si>
-    <t>N V</t>
-  </si>
-  <si>
     <t>ademán</t>
   </si>
   <si>
@@ -105,9 +63,6 @@
   </si>
   <si>
     <t>warden</t>
-  </si>
-  <si>
-    <t>A N</t>
   </si>
   <si>
     <t>navajero</t>
@@ -141,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +114,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -239,51 +188,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -620,287 +545,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD810C5-1B2D-4EE4-939A-901E632B94E3}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCellId="1" sqref="D1:I1048576 A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="12">
-        <v>7</v>
-      </c>
-      <c r="F2" s="11">
-        <v>2.65</v>
-      </c>
-      <c r="G2" s="11">
-        <v>5.65</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12">
-        <v>9</v>
-      </c>
-      <c r="F3" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G3" s="11">
-        <v>6.05</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2.9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12">
-        <v>6</v>
-      </c>
-      <c r="F5" s="11">
-        <v>3.2272727272727302</v>
-      </c>
-      <c r="G5" s="11">
-        <v>3.32</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="12">
-        <v>8</v>
-      </c>
-      <c r="F6" s="13">
-        <v>5.5238095238095202</v>
-      </c>
-      <c r="G6" s="11">
-        <v>3.48</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10">
-        <v>8</v>
-      </c>
-      <c r="F7" s="11">
-        <v>5.95</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3.32</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10">
-        <v>9</v>
-      </c>
-      <c r="F8" s="11">
-        <v>6.14</v>
-      </c>
-      <c r="G8" s="11">
-        <v>6.1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="10">
-        <v>7</v>
-      </c>
-      <c r="F9" s="11">
-        <v>6.77</v>
-      </c>
-      <c r="G9" s="11">
-        <v>6.13</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
